--- a/docs/EPOS_DCAT-AP_Specification.xlsx
+++ b/docs/EPOS_DCAT-AP_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entity&amp;Properties&amp;Roles" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="506">
   <si>
     <t>Unique Resource Identifier</t>
   </si>
@@ -865,9 +865,6 @@
     <t>This property refers to information that indicates whether the WebService is open data, has access restrictions or is not public</t>
   </si>
   <si>
-    <t>This property refers to data service type(E.g. Discovery, Download, View..)</t>
-  </si>
-  <si>
     <t>This property defines the link(s) to the resource and/or the link to additional information about the resource</t>
   </si>
   <si>
@@ -1232,9 +1229,6 @@
   </si>
   <si>
     <t>eposap:parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This property refers to a category of the Dataset  </t>
   </si>
   <si>
     <t>dcat:CatalogRecord-&gt;eposap:CatalogRecord</t>
@@ -1572,6 +1566,21 @@
   </si>
   <si>
     <t xml:space="preserve">Data type </t>
+  </si>
+  <si>
+    <t>This property links the Webservice which allows to access to the datasets</t>
+  </si>
+  <si>
+    <t>This property refers to the domain of resource(e.g. Seismology, Geodesy, Satellite data, Geomagnetic data, Geology, Geohazards, Georesources, Transnational access)</t>
+  </si>
+  <si>
+    <t>This property refers to the max value of the parameter</t>
+  </si>
+  <si>
+    <t>This property refers  to the min value of the parameter</t>
+  </si>
+  <si>
+    <t>This property refers to the subdomain of resource (e.g. Earthquake parameters, Velocity models, GNSS station velocities, InSAR, Meteorology,Variation of geomagnetic field, 3D/4D structural models, Analog models, Numerical models, Geochemical data, Borehole data, Rock sample properties)</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1791,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1816,12 +1825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,7 +3267,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="410">
+  <cellXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3908,25 +3911,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3953,13 +3938,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3968,147 +3953,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4122,14 +3966,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="113" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4469,7 +4466,7 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
@@ -4484,10 +4481,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="192" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B1" s="221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4495,7 +4492,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4503,7 +4500,7 @@
         <v>135</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4511,7 +4508,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
@@ -4519,7 +4516,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4527,7 +4524,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -4551,19 +4548,19 @@
         <v>128</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="192" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B12" s="222" t="s">
         <v>134</v>
       </c>
       <c r="C12" s="221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="222" t="s">
         <v>194</v>
@@ -4573,32 +4570,32 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="352" t="s">
+      <c r="A13" s="358" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="354" t="s">
+      <c r="B13" s="360" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="195" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D13" s="196" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" s="356" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="362" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="358"/>
-      <c r="B14" s="355"/>
+      <c r="A14" s="364"/>
+      <c r="B14" s="361"/>
       <c r="C14" s="195" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D14" s="196" t="s">
-        <v>373</v>
-      </c>
-      <c r="E14" s="357"/>
+        <v>372</v>
+      </c>
+      <c r="E14" s="363"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="205" t="s">
@@ -4608,13 +4605,13 @@
         <v>204</v>
       </c>
       <c r="C15" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D15" s="196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E15" s="206" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
@@ -4622,16 +4619,16 @@
         <v>99</v>
       </c>
       <c r="B16" s="197" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D16" s="196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E16" s="206" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
@@ -4642,13 +4639,13 @@
         <v>151</v>
       </c>
       <c r="C17" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D17" s="196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E17" s="206" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
@@ -4656,16 +4653,16 @@
         <v>72</v>
       </c>
       <c r="B18" s="199" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C18" s="198" t="s">
         <v>161</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E18" s="206" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
@@ -4676,13 +4673,13 @@
         <v>169</v>
       </c>
       <c r="C19" s="202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D19" s="196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" s="206" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4693,13 +4690,13 @@
         <v>241</v>
       </c>
       <c r="C20" s="202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D20" s="196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E20" s="206" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4710,13 +4707,13 @@
         <v>172</v>
       </c>
       <c r="C21" s="202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D21" s="196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E21" s="206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4727,20 +4724,20 @@
         <v>176</v>
       </c>
       <c r="C22" s="195" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D22" s="200" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E22" s="206" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="359" t="s">
+      <c r="A23" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="361" t="s">
+      <c r="B23" s="367" t="s">
         <v>152</v>
       </c>
       <c r="C23" s="198" t="s">
@@ -4750,49 +4747,49 @@
         <v>162</v>
       </c>
       <c r="E23" s="206" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="360"/>
-      <c r="B24" s="362"/>
+      <c r="A24" s="366"/>
+      <c r="B24" s="368"/>
       <c r="C24" s="198" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" s="200" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E24" s="206" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="352" t="s">
+      <c r="A25" s="358" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="354" t="s">
-        <v>316</v>
+      <c r="B25" s="360" t="s">
+        <v>315</v>
       </c>
       <c r="C25" s="198" t="s">
         <v>161</v>
       </c>
       <c r="D25" s="200" t="s">
-        <v>375</v>
-      </c>
-      <c r="E25" s="356" t="s">
-        <v>389</v>
+        <v>374</v>
+      </c>
+      <c r="E25" s="362" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="353"/>
-      <c r="B26" s="355"/>
+      <c r="A26" s="359"/>
+      <c r="B26" s="361"/>
       <c r="C26" s="198" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="203" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="357"/>
+        <v>374</v>
+      </c>
+      <c r="E26" s="363"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="208" t="s">
@@ -4802,21 +4799,21 @@
         <v>153</v>
       </c>
       <c r="C27" s="198" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="203" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="203" t="s">
-        <v>376</v>
-      </c>
       <c r="E27" s="206" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="211" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" s="212" t="s">
         <v>329</v>
-      </c>
-      <c r="B28" s="212" t="s">
-        <v>330</v>
       </c>
       <c r="C28" s="213" t="s">
         <v>162</v>
@@ -4825,19 +4822,19 @@
         <v>161</v>
       </c>
       <c r="E28" s="215" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="192" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B31" s="193" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="194" t="s">
         <v>194</v>
@@ -4860,7 +4857,7 @@
         <v>197</v>
       </c>
       <c r="E32" s="209" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4874,10 +4871,10 @@
         <v>162</v>
       </c>
       <c r="D33" s="216" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="217" t="s">
         <v>393</v>
-      </c>
-      <c r="E33" s="217" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4894,7 +4891,7 @@
         <v>197</v>
       </c>
       <c r="E34" s="210" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4908,10 +4905,10 @@
         <v>162</v>
       </c>
       <c r="D35" s="216" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E35" s="217" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4928,18 +4925,18 @@
         <v>197</v>
       </c>
       <c r="E36" s="210" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="350" t="s">
-        <v>410</v>
-      </c>
-      <c r="B37" s="348" t="s">
-        <v>399</v>
+      <c r="A37" s="356" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" s="354" t="s">
+        <v>398</v>
       </c>
       <c r="C37" s="258" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D37" s="200" t="s">
         <v>197</v>
@@ -4947,10 +4944,10 @@
       <c r="E37" s="259"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="351"/>
-      <c r="B38" s="349"/>
+      <c r="A38" s="357"/>
+      <c r="B38" s="355"/>
       <c r="C38" s="213" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D38" s="218" t="s">
         <v>197</v>
@@ -5309,8 +5306,8 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,10 +5326,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1" s="17"/>
       <c r="E1" s="227"/>
@@ -5343,7 +5340,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2" s="17"/>
       <c r="E2" s="227"/>
@@ -5357,18 +5354,18 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F4" s="364"/>
-      <c r="G4" s="365"/>
+      <c r="E4" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="370"/>
+      <c r="G4" s="371"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>108</v>
@@ -5376,17 +5373,17 @@
       <c r="D5" s="295" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="344" t="s">
-        <v>416</v>
+      <c r="E5" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H5" s="193" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>242</v>
@@ -5406,16 +5403,16 @@
         <v>30</v>
       </c>
       <c r="E6" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="246">
         <v>128</v>
       </c>
       <c r="G6" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H6" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I6" s="84" t="s">
         <v>243</v>
@@ -5435,16 +5432,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="246">
         <v>250</v>
       </c>
       <c r="G7" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H7" s="297" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I7" s="84" t="s">
         <v>244</v>
@@ -5464,16 +5461,16 @@
         <v>30</v>
       </c>
       <c r="E8" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="246">
         <v>8192</v>
       </c>
       <c r="G8" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H8" s="297" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I8" s="84" t="s">
         <v>245</v>
@@ -5493,16 +5490,16 @@
         <v>199</v>
       </c>
       <c r="E9" s="246" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F9" s="246" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G9" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H9" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I9" s="84" t="s">
         <v>258</v>
@@ -5522,16 +5519,16 @@
         <v>199</v>
       </c>
       <c r="E10" s="246" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F10" s="246" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G10" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H10" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I10" s="84" t="s">
         <v>259</v>
@@ -5545,22 +5542,22 @@
         <v>207</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11" s="157" t="s">
         <v>199</v>
       </c>
       <c r="E11" s="246" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F11" s="246" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G11" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H11" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I11" s="84" t="s">
         <v>263</v>
@@ -5574,20 +5571,20 @@
         <v>130</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D12" s="157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" s="276" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="246"/>
       <c r="G12" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H12" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I12" s="84" t="s">
         <v>271</v>
@@ -5605,17 +5602,17 @@
         <v>132</v>
       </c>
       <c r="D13" s="157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" s="276" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="246"/>
-      <c r="G13" s="329" t="s">
-        <v>418</v>
+      <c r="G13" s="323" t="s">
+        <v>416</v>
       </c>
       <c r="H13" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I13" s="84" t="s">
         <v>268</v>
@@ -5635,19 +5632,19 @@
         <v>29</v>
       </c>
       <c r="E14" s="246" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F14" s="246" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G14" s="246" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H14" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="I14" s="338" t="s">
-        <v>481</v>
+        <v>405</v>
+      </c>
+      <c r="I14" s="332" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.95" x14ac:dyDescent="0.2">
@@ -5658,22 +5655,22 @@
         <v>227</v>
       </c>
       <c r="C15" s="140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D15" s="157" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F15" s="246">
         <v>64</v>
       </c>
       <c r="G15" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H15" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I15" s="84" t="s">
         <v>265</v>
@@ -5687,22 +5684,22 @@
         <v>26</v>
       </c>
       <c r="C16" s="140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D16" s="296" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F16" s="246">
         <v>64</v>
       </c>
       <c r="G16" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H16" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I16" s="84" t="s">
         <v>246</v>
@@ -5721,11 +5718,11 @@
       <c r="D17" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="325"/>
-      <c r="F17" s="325"/>
-      <c r="G17" s="325"/>
-      <c r="H17" s="228" t="s">
-        <v>407</v>
+      <c r="E17" s="351"/>
+      <c r="F17" s="351"/>
+      <c r="G17" s="351"/>
+      <c r="H17" s="229" t="s">
+        <v>405</v>
       </c>
       <c r="I17" s="84" t="s">
         <v>247</v>
@@ -5745,16 +5742,16 @@
         <v>31</v>
       </c>
       <c r="E18" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F18" s="246">
         <v>64</v>
       </c>
       <c r="G18" s="246" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H18" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I18" s="84" t="s">
         <v>248</v>
@@ -5774,16 +5771,16 @@
         <v>32</v>
       </c>
       <c r="E19" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F19" s="246">
         <v>64</v>
       </c>
       <c r="G19" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H19" s="229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I19" s="84" t="s">
         <v>266</v>
@@ -5797,22 +5794,22 @@
         <v>226</v>
       </c>
       <c r="C20" s="140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D20" s="83" t="s">
         <v>197</v>
       </c>
       <c r="E20" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F20" s="246">
         <v>3</v>
       </c>
       <c r="G20" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H20" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I20" s="84" t="s">
         <v>270</v>
@@ -5826,16 +5823,16 @@
         <v>33</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D21" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="326"/>
-      <c r="F21" s="326"/>
-      <c r="G21" s="326"/>
+      <c r="E21" s="351"/>
+      <c r="F21" s="351"/>
+      <c r="G21" s="351"/>
       <c r="H21" s="229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I21" s="84" t="s">
         <v>250</v>
@@ -5854,11 +5851,11 @@
       <c r="D22" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="326"/>
-      <c r="F22" s="326"/>
-      <c r="G22" s="326"/>
+      <c r="E22" s="351"/>
+      <c r="F22" s="351"/>
+      <c r="G22" s="351"/>
       <c r="H22" s="229" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I22" s="84" t="s">
         <v>251</v>
@@ -5877,11 +5874,11 @@
       <c r="D23" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="326"/>
-      <c r="F23" s="326"/>
-      <c r="G23" s="326"/>
+      <c r="E23" s="351"/>
+      <c r="F23" s="351"/>
+      <c r="G23" s="351"/>
       <c r="H23" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I23" s="84" t="s">
         <v>252</v>
@@ -5900,11 +5897,11 @@
       <c r="D24" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="326"/>
-      <c r="F24" s="326"/>
-      <c r="G24" s="326"/>
+      <c r="E24" s="351"/>
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
       <c r="H24" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I24" s="84" t="s">
         <v>253</v>
@@ -5923,11 +5920,11 @@
       <c r="D25" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="326"/>
-      <c r="F25" s="326"/>
-      <c r="G25" s="326"/>
+      <c r="E25" s="351"/>
+      <c r="F25" s="351"/>
+      <c r="G25" s="351"/>
       <c r="H25" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I25" s="84" t="s">
         <v>254</v>
@@ -5946,11 +5943,11 @@
       <c r="D26" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="326"/>
-      <c r="F26" s="326"/>
-      <c r="G26" s="326"/>
+      <c r="E26" s="351"/>
+      <c r="F26" s="351"/>
+      <c r="G26" s="351"/>
       <c r="H26" s="229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I26" s="84" t="s">
         <v>255</v>
@@ -5958,10 +5955,10 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" s="135" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C27" s="140" t="s">
         <v>132</v>
@@ -5969,45 +5966,61 @@
       <c r="D27" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="327"/>
-      <c r="F27" s="327"/>
-      <c r="G27" s="327"/>
+      <c r="E27" s="352"/>
+      <c r="F27" s="352"/>
+      <c r="G27" s="352"/>
       <c r="H27" s="228" t="s">
-        <v>406</v>
-      </c>
-      <c r="I27" s="253" t="s">
-        <v>401</v>
+        <v>404</v>
+      </c>
+      <c r="I27" s="257" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="281" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B28" s="135" t="s">
-        <v>462</v>
-      </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="327"/>
-      <c r="F28" s="327"/>
-      <c r="G28" s="327"/>
-      <c r="H28" s="228"/>
-      <c r="I28" s="253"/>
+        <v>460</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="352"/>
+      <c r="F28" s="352"/>
+      <c r="G28" s="352"/>
+      <c r="H28" s="228" t="s">
+        <v>404</v>
+      </c>
+      <c r="I28" s="257" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="281" t="s">
-        <v>464</v>
-      </c>
-      <c r="B29" s="399" t="s">
-        <v>463</v>
-      </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="253"/>
+        <v>462</v>
+      </c>
+      <c r="B29" s="342" t="s">
+        <v>461</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="225" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29" s="352"/>
+      <c r="F29" s="352"/>
+      <c r="G29" s="352"/>
+      <c r="H29" s="228" t="s">
+        <v>405</v>
+      </c>
+      <c r="I29" s="253" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="277" t="s">
@@ -6022,11 +6035,11 @@
       <c r="D30" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="326"/>
-      <c r="F30" s="326"/>
-      <c r="G30" s="326"/>
+      <c r="E30" s="351"/>
+      <c r="F30" s="351"/>
+      <c r="G30" s="351"/>
       <c r="H30" s="229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I30" s="84" t="s">
         <v>256</v>
@@ -6036,7 +6049,7 @@
       <c r="A31" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="334" t="s">
+      <c r="B31" s="328" t="s">
         <v>174</v>
       </c>
       <c r="C31" s="142" t="s">
@@ -6045,11 +6058,11 @@
       <c r="D31" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="328"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="328"/>
+      <c r="E31" s="353"/>
+      <c r="F31" s="353"/>
+      <c r="G31" s="353"/>
       <c r="H31" s="230" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I31" s="88" t="s">
         <v>257</v>
@@ -6069,20 +6082,20 @@
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E34" s="227"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E35" s="227"/>
       <c r="H35"/>
@@ -6108,11 +6121,11 @@
       <c r="A38" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="330" t="s">
+      <c r="B38" s="324" t="s">
         <v>222</v>
       </c>
       <c r="C38" s="143" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>30</v>
@@ -6121,7 +6134,7 @@
       <c r="F38" s="272"/>
       <c r="G38" s="272"/>
       <c r="H38" s="238" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I38" s="97" t="s">
         <v>260</v>
@@ -6131,7 +6144,7 @@
       <c r="A39" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="331" t="s">
+      <c r="B39" s="325" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="144" t="s">
@@ -6144,7 +6157,7 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I39" s="84" t="s">
         <v>261</v>
@@ -6158,7 +6171,7 @@
         <v>218</v>
       </c>
       <c r="C40" s="145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>30</v>
@@ -6167,7 +6180,7 @@
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
       <c r="H40" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I40" s="84" t="s">
         <v>262</v>
@@ -6177,7 +6190,7 @@
       <c r="A41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="332" t="s">
+      <c r="B41" s="326" t="s">
         <v>145</v>
       </c>
       <c r="C41" s="146" t="s">
@@ -6190,7 +6203,7 @@
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I41" s="84" t="s">
         <v>249</v>
@@ -6200,11 +6213,11 @@
       <c r="A42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="331" t="s">
+      <c r="B42" s="325" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>197</v>
@@ -6213,7 +6226,7 @@
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I42" s="84" t="s">
         <v>270</v>
@@ -6223,20 +6236,20 @@
       <c r="A43" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="331" t="s">
+      <c r="B43" s="325" t="s">
         <v>224</v>
       </c>
       <c r="C43" s="145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
       <c r="H43" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I43" s="84" t="s">
         <v>267</v>
@@ -6259,11 +6272,11 @@
       <c r="A45" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="331" t="s">
+      <c r="B45" s="325" t="s">
         <v>219</v>
       </c>
       <c r="C45" s="145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>199</v>
@@ -6272,7 +6285,7 @@
       <c r="F45" s="274"/>
       <c r="G45" s="274"/>
       <c r="H45" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I45" s="84" t="s">
         <v>264</v>
@@ -6282,7 +6295,7 @@
       <c r="A46" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="333" t="s">
+      <c r="B46" s="327" t="s">
         <v>220</v>
       </c>
       <c r="C46" s="147" t="s">
@@ -6295,7 +6308,7 @@
       <c r="F46" s="275"/>
       <c r="G46" s="275"/>
       <c r="H46" s="237" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I46" s="88" t="s">
         <v>269</v>
@@ -6489,8 +6502,8 @@
   </sheetPr>
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="D13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6507,64 +6520,64 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1" s="369" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="375" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="369"/>
-      <c r="D1" s="370"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="376"/>
       <c r="H1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="371" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="371"/>
-      <c r="D2" s="372"/>
+      <c r="B2" s="377" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="377"/>
+      <c r="D2" s="378"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
       <c r="H3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F4" s="364"/>
-      <c r="G4" s="365"/>
+      <c r="E4" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="370"/>
+      <c r="G4" s="371"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C5" s="148" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="E5" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="344" t="s">
-        <v>416</v>
+        <v>474</v>
+      </c>
+      <c r="E5" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H5" s="303" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>242</v>
@@ -6578,22 +6591,22 @@
         <v>205</v>
       </c>
       <c r="C6" s="149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" s="254" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="248">
         <v>128</v>
       </c>
       <c r="G6" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H6" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I6" s="257" t="s">
         <v>273</v>
@@ -6613,19 +6626,19 @@
         <v>30</v>
       </c>
       <c r="E7" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="248">
         <v>250</v>
       </c>
       <c r="G7" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H7" s="229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I7" s="257" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6642,16 +6655,16 @@
         <v>30</v>
       </c>
       <c r="E8" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="248">
         <v>8192</v>
       </c>
       <c r="G8" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H8" s="229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I8" s="257" t="s">
         <v>274</v>
@@ -6671,24 +6684,24 @@
         <v>199</v>
       </c>
       <c r="E9" s="300" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F9" s="248" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G9" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H9" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I9" s="257" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="266" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" s="223" t="s">
         <v>220</v>
@@ -6700,19 +6713,19 @@
         <v>199</v>
       </c>
       <c r="E10" s="300" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F10" s="248" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G10" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H10" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I10" s="257" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6723,25 +6736,25 @@
         <v>219</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D11" s="255" t="s">
         <v>199</v>
       </c>
       <c r="E11" s="300" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F11" s="248" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G11" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H11" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I11" s="257" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6749,23 +6762,23 @@
         <v>131</v>
       </c>
       <c r="B12" s="226" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C12" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D12" s="400" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="D12" s="343" t="s">
+        <v>374</v>
       </c>
       <c r="E12" s="299" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="264"/>
       <c r="G12" s="264" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H12" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I12" s="257" t="s">
         <v>275</v>
@@ -6781,18 +6794,18 @@
       <c r="C13" s="225" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="400" t="s">
-        <v>373</v>
+      <c r="D13" s="343" t="s">
+        <v>372</v>
       </c>
       <c r="E13" s="299" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="264"/>
       <c r="G13" s="264" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H13" s="229" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I13" s="257" t="s">
         <v>276</v>
@@ -6806,25 +6819,25 @@
         <v>208</v>
       </c>
       <c r="C14" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="344" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F14" s="248" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G14" s="248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H14" s="229" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I14" s="257" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6835,25 +6848,25 @@
         <v>26</v>
       </c>
       <c r="C15" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D15" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="344" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F15" s="248">
         <v>64</v>
       </c>
       <c r="G15" s="248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H15" s="229" t="s">
-        <v>407</v>
-      </c>
-      <c r="I15" s="403" t="s">
-        <v>488</v>
+        <v>405</v>
+      </c>
+      <c r="I15" s="346" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6866,23 +6879,23 @@
       <c r="C16" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="401" t="s">
+      <c r="D16" s="344" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F16" s="248">
         <v>64</v>
       </c>
       <c r="G16" s="248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H16" s="229" t="s">
-        <v>407</v>
-      </c>
-      <c r="I16" s="403" t="s">
-        <v>489</v>
+        <v>405</v>
+      </c>
+      <c r="I16" s="346" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6893,25 +6906,25 @@
         <v>209</v>
       </c>
       <c r="C17" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D17" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="344" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F17" s="248">
         <v>64</v>
       </c>
       <c r="G17" s="248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H17" s="229" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I17" s="257" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6924,20 +6937,20 @@
       <c r="C18" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="401" t="s">
+      <c r="D18" s="344" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F18" s="248">
         <v>64</v>
       </c>
       <c r="G18" s="248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H18" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I18" s="257" t="s">
         <v>251</v>
@@ -6945,75 +6958,77 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="265" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B19" s="226" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C19" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D19" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="344" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F19" s="248">
         <v>64</v>
       </c>
       <c r="G19" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H19" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I19" s="257" t="s">
-        <v>278</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="243" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B20" s="226" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C20" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D20" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" s="344" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="300"/>
       <c r="F20" s="248"/>
       <c r="G20" s="248"/>
       <c r="H20" s="229" t="s">
-        <v>406</v>
-      </c>
-      <c r="I20" s="257"/>
+        <v>404</v>
+      </c>
+      <c r="I20" s="257" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="243" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B21" s="226" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C21" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D21" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="344" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="300"/>
       <c r="F21" s="248"/>
       <c r="G21" s="248"/>
       <c r="H21" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I21" s="257" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7024,25 +7039,25 @@
         <v>210</v>
       </c>
       <c r="C22" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D22" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="344" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="300" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F22" s="248">
         <v>1024</v>
       </c>
       <c r="G22" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H22" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I22" s="257" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7055,23 +7070,23 @@
       <c r="C23" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="402" t="s">
+      <c r="D23" s="345" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="248" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F23" s="248">
         <v>1024</v>
       </c>
       <c r="G23" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H23" s="229" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I23" s="257" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7079,79 +7094,79 @@
         <v>25</v>
       </c>
       <c r="B24" s="223" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C24" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="402" t="s">
+      <c r="D24" s="345" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="248" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F24" s="248">
         <v>1024</v>
       </c>
       <c r="G24" s="248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H24" s="229" t="s">
-        <v>409</v>
-      </c>
-      <c r="I24" s="403" t="s">
+        <v>407</v>
+      </c>
+      <c r="I24" s="346" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="243" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B25" s="223" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C25" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D25" s="400" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="343" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="248"/>
       <c r="F25" s="248"/>
       <c r="G25" s="248"/>
       <c r="H25" s="229" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="243" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B26" s="223" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C26" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D26" s="402" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="345" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="248"/>
       <c r="F26" s="248"/>
       <c r="G26" s="248"/>
       <c r="H26" s="229" t="s">
-        <v>407</v>
-      </c>
-      <c r="I26" s="403" t="s">
-        <v>495</v>
+        <v>405</v>
+      </c>
+      <c r="I26" s="346" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="265" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B27" s="223" t="s">
         <v>142</v>
@@ -7159,43 +7174,43 @@
       <c r="C27" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="402" t="s">
+      <c r="D27" s="345" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="248" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F27" s="248">
         <v>2083</v>
       </c>
       <c r="G27" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H27" s="229" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I27" s="257" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="243" t="s">
-        <v>405</v>
-      </c>
-      <c r="B28" s="404" t="s">
-        <v>400</v>
+        <v>403</v>
+      </c>
+      <c r="B28" s="347" t="s">
+        <v>399</v>
       </c>
       <c r="C28" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D28" s="402"/>
+        <v>370</v>
+      </c>
+      <c r="D28" s="345"/>
       <c r="E28" s="248"/>
       <c r="F28" s="248"/>
       <c r="G28" s="248"/>
       <c r="H28" s="229" t="s">
-        <v>409</v>
-      </c>
-      <c r="I28" s="403"/>
+        <v>407</v>
+      </c>
+      <c r="I28" s="346"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="270" t="s">
@@ -7207,46 +7222,46 @@
       <c r="C29" s="225" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="402" t="s">
+      <c r="D29" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="324"/>
-      <c r="F29" s="324"/>
+      <c r="E29" s="407"/>
+      <c r="F29" s="407"/>
       <c r="G29" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H29" s="228" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="270" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B30" s="223" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C30" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D30" s="401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="344" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="324"/>
-      <c r="F30" s="324"/>
+      <c r="E30" s="407"/>
+      <c r="F30" s="407"/>
       <c r="G30" s="248"/>
       <c r="H30" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="335" t="s">
+      <c r="A31" s="329" t="s">
         <v>216</v>
       </c>
       <c r="B31" s="223" t="s">
@@ -7255,62 +7270,66 @@
       <c r="C31" s="225" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="402" t="s">
+      <c r="D31" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="324"/>
-      <c r="F31" s="324"/>
+      <c r="E31" s="407"/>
+      <c r="F31" s="407"/>
       <c r="G31" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H31" s="228" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="335" t="s">
-        <v>470</v>
+      <c r="A32" s="329" t="s">
+        <v>468</v>
       </c>
       <c r="B32" s="223" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C32" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D32" s="402" t="s">
+        <v>370</v>
+      </c>
+      <c r="D32" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="324"/>
-      <c r="F32" s="324"/>
+      <c r="E32" s="407"/>
+      <c r="F32" s="407"/>
       <c r="G32" s="248"/>
       <c r="H32" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="I32" s="52"/>
+        <v>405</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="335" t="s">
-        <v>471</v>
+      <c r="A33" s="329" t="s">
+        <v>469</v>
       </c>
       <c r="B33" s="223" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C33" s="225" t="s">
-        <v>371</v>
-      </c>
-      <c r="D33" s="402" t="s">
+        <v>370</v>
+      </c>
+      <c r="D33" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="324"/>
-      <c r="F33" s="324"/>
+      <c r="E33" s="407"/>
+      <c r="F33" s="407"/>
       <c r="G33" s="248"/>
       <c r="H33" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="I33" s="52"/>
+        <v>405</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="270" t="s">
@@ -7320,54 +7339,54 @@
         <v>28</v>
       </c>
       <c r="C34" s="150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D34" s="152" t="s">
         <v>197</v>
       </c>
       <c r="E34" s="248" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F34" s="248">
         <v>64</v>
       </c>
       <c r="G34" s="248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H34" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I34" s="188" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="340" t="s">
+      <c r="A35" s="334" t="s">
         <v>215</v>
       </c>
       <c r="B35" s="86" t="s">
         <v>218</v>
       </c>
       <c r="C35" s="151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D35" s="153" t="s">
         <v>197</v>
       </c>
       <c r="E35" s="249" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F35" s="249">
         <v>64</v>
       </c>
       <c r="G35" s="249" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H35" s="244" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I35" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7425,9 +7444,9 @@
       <c r="B41" s="267"/>
       <c r="C41" s="267"/>
       <c r="D41" s="267"/>
-      <c r="E41" s="366"/>
-      <c r="F41" s="366"/>
-      <c r="G41" s="368"/>
+      <c r="E41" s="372"/>
+      <c r="F41" s="372"/>
+      <c r="G41" s="374"/>
       <c r="H41" s="241"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7435,9 +7454,9 @@
       <c r="B42" s="267"/>
       <c r="C42" s="267"/>
       <c r="D42" s="267"/>
-      <c r="E42" s="367"/>
-      <c r="F42" s="367"/>
-      <c r="G42" s="367"/>
+      <c r="E42" s="373"/>
+      <c r="F42" s="373"/>
+      <c r="G42" s="373"/>
       <c r="H42" s="240"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9280,22 +9299,22 @@
       <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="377" t="s">
+      <c r="B1" s="385" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="377"/>
-      <c r="D1" s="378"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="386"/>
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="379" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="379"/>
-      <c r="D2" s="380"/>
+      <c r="B2" s="387" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="387"/>
+      <c r="D2" s="388"/>
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9306,15 +9325,15 @@
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F4" s="364"/>
-      <c r="G4" s="365"/>
+      <c r="E4" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="370"/>
+      <c r="G4" s="371"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>143</v>
@@ -9325,17 +9344,17 @@
       <c r="D5" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="344" t="s">
-        <v>416</v>
+      <c r="E5" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>242</v>
@@ -9349,74 +9368,74 @@
         <v>236</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" s="155" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="279" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="279">
         <v>128</v>
       </c>
       <c r="G6" s="279" t="s">
-        <v>418</v>
-      </c>
-      <c r="H6" s="405" t="s">
-        <v>406</v>
-      </c>
-      <c r="I6" s="406" t="s">
-        <v>486</v>
+        <v>416</v>
+      </c>
+      <c r="H6" s="348" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" s="349" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="375" t="s">
+      <c r="B7" s="383" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="381" t="s">
+      <c r="C7" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="383" t="s">
+      <c r="D7" s="391" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="246">
         <v>64</v>
       </c>
       <c r="G7" s="246" t="s">
-        <v>418</v>
-      </c>
-      <c r="H7" s="407" t="s">
-        <v>406</v>
-      </c>
-      <c r="I7" s="408" t="s">
-        <v>290</v>
+        <v>416</v>
+      </c>
+      <c r="H7" s="380" t="s">
+        <v>404</v>
+      </c>
+      <c r="I7" s="379" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="376"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="384"/>
+      <c r="B8" s="384"/>
+      <c r="C8" s="390"/>
+      <c r="D8" s="392"/>
       <c r="E8" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="246">
         <v>64</v>
       </c>
       <c r="G8" s="246" t="s">
-        <v>418</v>
-      </c>
-      <c r="H8" s="407"/>
-      <c r="I8" s="408"/>
+        <v>416</v>
+      </c>
+      <c r="H8" s="380"/>
+      <c r="I8" s="379"/>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="277" t="s">
@@ -9426,23 +9445,23 @@
         <v>176</v>
       </c>
       <c r="C9" s="149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D9" s="156" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="246" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="246"/>
       <c r="G9" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H9" s="248" t="s">
-        <v>406</v>
-      </c>
-      <c r="I9" s="403" t="s">
-        <v>289</v>
+        <v>404</v>
+      </c>
+      <c r="I9" s="346" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9453,25 +9472,25 @@
         <v>235</v>
       </c>
       <c r="C10" s="149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10" s="157" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F10" s="246">
         <v>64</v>
       </c>
       <c r="G10" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H10" s="229" t="s">
-        <v>407</v>
-      </c>
-      <c r="I10" s="403" t="s">
-        <v>477</v>
+        <v>405</v>
+      </c>
+      <c r="I10" s="346" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9482,25 +9501,25 @@
         <v>145</v>
       </c>
       <c r="C11" s="149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D11" s="157" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F11" s="246">
         <v>64</v>
       </c>
       <c r="G11" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H11" s="229" t="s">
-        <v>406</v>
-      </c>
-      <c r="I11" s="403" t="s">
-        <v>478</v>
+        <v>404</v>
+      </c>
+      <c r="I11" s="346" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9517,19 +9536,19 @@
         <v>107</v>
       </c>
       <c r="E12" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F12" s="246" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G12" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H12" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9545,20 +9564,20 @@
       <c r="D13" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="373" t="s">
-        <v>417</v>
-      </c>
-      <c r="F13" s="373">
+      <c r="E13" s="381" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" s="381">
         <v>128</v>
       </c>
-      <c r="G13" s="373" t="s">
-        <v>422</v>
+      <c r="G13" s="381" t="s">
+        <v>420</v>
       </c>
       <c r="H13" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9574,14 +9593,14 @@
       <c r="D14" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="373"/>
-      <c r="F14" s="373"/>
-      <c r="G14" s="373"/>
+      <c r="E14" s="381"/>
+      <c r="F14" s="381"/>
+      <c r="G14" s="381"/>
       <c r="H14" s="228" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9589,7 +9608,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C15" s="151" t="s">
         <v>129</v>
@@ -9597,14 +9616,14 @@
       <c r="D15" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="382"/>
       <c r="H15" s="237" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -9639,8 +9658,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9659,38 +9678,38 @@
       <c r="A1" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="385" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="385"/>
-      <c r="D1" s="386"/>
+      <c r="B1" s="393" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="393"/>
+      <c r="D1" s="394"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="387" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="388"/>
-      <c r="D2" s="389"/>
+      <c r="B2" s="395" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="396"/>
+      <c r="D2" s="397"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="345"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
+      <c r="A3" s="339"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F4" s="364"/>
-      <c r="G4" s="365"/>
+      <c r="E4" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="370"/>
+      <c r="G4" s="371"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" s="117" t="s">
         <v>143</v>
@@ -9701,17 +9720,17 @@
       <c r="D5" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="344" t="s">
-        <v>416</v>
+      <c r="E5" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H5" s="193" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>242</v>
@@ -9725,25 +9744,25 @@
         <v>236</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" s="156" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="246">
         <v>128</v>
       </c>
       <c r="G6" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H6" s="250" t="s">
-        <v>406</v>
-      </c>
-      <c r="I6" s="337" t="s">
-        <v>473</v>
+        <v>404</v>
+      </c>
+      <c r="I6" s="331" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9760,19 +9779,19 @@
         <v>202</v>
       </c>
       <c r="E7" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="246">
         <v>250</v>
       </c>
       <c r="G7" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H7" s="250" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I7" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9789,19 +9808,19 @@
         <v>202</v>
       </c>
       <c r="E8" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="246">
         <v>250</v>
       </c>
       <c r="G8" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H8" s="250" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I8" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9812,32 +9831,32 @@
         <v>37</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D9" s="156" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F9" s="246">
         <v>64</v>
       </c>
       <c r="G9" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H9" s="246" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="277" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="336" t="s">
+      <c r="B10" s="330" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="111" t="s">
@@ -9847,19 +9866,19 @@
         <v>107</v>
       </c>
       <c r="E10" s="246" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F10" s="246" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G10" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H10" s="250" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I10" s="93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9870,10 +9889,10 @@
         <v>204</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E11" s="246" t="s">
         <v>116</v>
@@ -9882,13 +9901,13 @@
         <v>128</v>
       </c>
       <c r="G11" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H11" s="250" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I11" s="93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9896,13 +9915,13 @@
         <v>99</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" s="157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" s="246" t="s">
         <v>116</v>
@@ -9911,13 +9930,13 @@
         <v>128</v>
       </c>
       <c r="G12" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H12" s="250" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I12" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9928,10 +9947,10 @@
         <v>151</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D13" s="157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" s="246" t="s">
         <v>116</v>
@@ -9940,13 +9959,13 @@
         <v>128</v>
       </c>
       <c r="G13" s="246" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H13" s="250" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9954,13 +9973,13 @@
         <v>101</v>
       </c>
       <c r="B14" s="120" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" s="156" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" s="276" t="s">
         <v>8</v>
@@ -9969,13 +9988,13 @@
         <v>128</v>
       </c>
       <c r="G14" s="276" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H14" s="250" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9986,23 +10005,23 @@
         <v>153</v>
       </c>
       <c r="C15" s="111" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="165" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="165" t="s">
-        <v>376</v>
-      </c>
       <c r="E15" s="276" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F15" s="276"/>
       <c r="G15" s="276" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H15" s="250" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I15" s="122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10019,19 +10038,19 @@
         <v>203</v>
       </c>
       <c r="E16" s="246" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F16" s="246">
         <v>2083</v>
       </c>
       <c r="G16" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H16" s="250" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10048,19 +10067,19 @@
         <v>203</v>
       </c>
       <c r="E17" s="246" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F17" s="246">
         <v>2083</v>
       </c>
       <c r="G17" s="246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H17" s="250" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10068,22 +10087,22 @@
         <v>106</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="323"/>
-      <c r="F18" s="323"/>
-      <c r="G18" s="323"/>
+      <c r="E18" s="353"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="353"/>
       <c r="H18" s="252" t="s">
-        <v>407</v>
-      </c>
-      <c r="I18" s="409" t="s">
-        <v>480</v>
+        <v>405</v>
+      </c>
+      <c r="I18" s="350" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10094,7 +10113,7 @@
         <v>137</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20" s="8"/>
       <c r="E20" s="227"/>
@@ -10102,10 +10121,10 @@
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="220" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="36"/>
@@ -10122,7 +10141,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>143</v>
@@ -10134,16 +10153,16 @@
         <v>194</v>
       </c>
       <c r="E23" s="301" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" s="302" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23" s="307" t="s">
         <v>414</v>
       </c>
-      <c r="F23" s="302" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="307" t="s">
-        <v>416</v>
-      </c>
       <c r="H23" s="193" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I23" s="64" t="s">
         <v>242</v>
@@ -10157,7 +10176,7 @@
         <v>228</v>
       </c>
       <c r="C24" s="162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D24" s="74" t="s">
         <v>197</v>
@@ -10166,10 +10185,10 @@
       <c r="F24" s="8"/>
       <c r="G24" s="25"/>
       <c r="H24" s="248" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10180,7 +10199,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="163" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D25" s="74" t="s">
         <v>197</v>
@@ -10189,10 +10208,10 @@
       <c r="F25" s="8"/>
       <c r="G25" s="25"/>
       <c r="H25" s="248" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10203,7 +10222,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D26" s="79" t="s">
         <v>197</v>
@@ -10212,10 +10231,10 @@
       <c r="F26" s="305"/>
       <c r="G26" s="306"/>
       <c r="H26" s="249" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -10260,7 +10279,7 @@
         <v>137</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1" s="17"/>
     </row>
@@ -10269,21 +10288,21 @@
         <v>112</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8"/>
-      <c r="E3" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F3" s="364"/>
-      <c r="G3" s="365"/>
+      <c r="E3" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="370"/>
+      <c r="G3" s="371"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>143</v>
@@ -10294,17 +10313,17 @@
       <c r="D4" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F4" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="344" t="s">
-        <v>416</v>
+      <c r="E4" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H4" s="194" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I4" s="64" t="s">
         <v>242</v>
@@ -10318,25 +10337,25 @@
         <v>236</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>197</v>
       </c>
       <c r="E5" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F5" s="311">
         <v>128</v>
       </c>
       <c r="G5" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H5" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10353,19 +10372,19 @@
         <v>197</v>
       </c>
       <c r="E6" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="312">
         <v>250</v>
       </c>
       <c r="G6" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H6" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10382,19 +10401,19 @@
         <v>197</v>
       </c>
       <c r="E7" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="311">
         <v>64</v>
       </c>
       <c r="G7" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H7" s="293" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10405,25 +10424,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D8" s="96" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="312">
         <v>8192</v>
       </c>
       <c r="G8" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H8" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10434,23 +10453,23 @@
         <v>224</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E9" s="298" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="313"/>
       <c r="G9" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H9" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10461,25 +10480,25 @@
         <v>211</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" s="80" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="309" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F10" s="314">
         <v>64</v>
       </c>
       <c r="G10" s="292" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H10" s="294" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I10" s="88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10545,7 +10564,7 @@
         <v>137</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="34"/>
     </row>
@@ -10554,7 +10573,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -10563,17 +10582,17 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F3" s="364"/>
-      <c r="G3" s="365"/>
+      <c r="E3" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="370"/>
+      <c r="G3" s="371"/>
       <c r="H3" s="242"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="127" t="s">
         <v>143</v>
@@ -10584,17 +10603,17 @@
       <c r="D4" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F4" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="344" t="s">
-        <v>416</v>
+      <c r="E4" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H4" s="194" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I4" s="65" t="s">
         <v>242</v>
@@ -10614,19 +10633,19 @@
         <v>27</v>
       </c>
       <c r="E5" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F5" s="311">
         <v>128</v>
       </c>
       <c r="G5" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H5" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10643,19 +10662,19 @@
         <v>27</v>
       </c>
       <c r="E6" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="311">
         <v>250</v>
       </c>
       <c r="G6" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H6" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10672,19 +10691,19 @@
         <v>197</v>
       </c>
       <c r="E7" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="316">
         <v>64</v>
       </c>
       <c r="G7" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H7" s="293" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10701,19 +10720,19 @@
         <v>107</v>
       </c>
       <c r="E8" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="311">
         <v>64</v>
       </c>
       <c r="G8" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H8" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10721,26 +10740,26 @@
         <v>69</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9" s="111" t="s">
         <v>161</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="298" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="311"/>
       <c r="G9" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H9" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10757,19 +10776,19 @@
         <v>36</v>
       </c>
       <c r="E10" s="298" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F10" s="311">
         <v>2083</v>
       </c>
       <c r="G10" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H10" s="293" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10777,7 +10796,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" s="111" t="s">
         <v>195</v>
@@ -10786,19 +10805,19 @@
         <v>197</v>
       </c>
       <c r="E11" s="256" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F11" s="316">
         <v>64</v>
       </c>
       <c r="G11" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H11" s="293" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10812,20 +10831,20 @@
         <v>161</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" s="298" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="311"/>
       <c r="G12" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H12" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10833,26 +10852,26 @@
         <v>72</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="111" t="s">
         <v>161</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" s="298" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="311"/>
       <c r="G13" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H13" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I13" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10869,19 +10888,19 @@
         <v>27</v>
       </c>
       <c r="E14" s="309" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F14" s="317">
         <v>1024</v>
       </c>
       <c r="G14" s="292" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H14" s="294" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10926,13 +10945,13 @@
       <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="390" t="s">
-        <v>338</v>
-      </c>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
+      <c r="B1" s="398" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
       <c r="E1" s="308" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1"/>
     </row>
@@ -10940,11 +10959,11 @@
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="379" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
+      <c r="B2" s="387" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
       <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="H2"/>
@@ -10963,17 +10982,17 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F4" s="364"/>
-      <c r="G4" s="365"/>
+      <c r="E4" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="370"/>
+      <c r="G4" s="371"/>
       <c r="H4" s="242"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" s="129" t="s">
         <v>143</v>
@@ -10984,26 +11003,26 @@
       <c r="D5" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F5" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="344" t="s">
-        <v>416</v>
+      <c r="E5" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H5" s="194" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>242</v>
       </c>
       <c r="J5" s="290" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K5" s="289" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11020,22 +11039,22 @@
         <v>197</v>
       </c>
       <c r="E6" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" s="291">
         <v>128</v>
       </c>
       <c r="G6" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H6" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J6" s="227" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K6" s="282" t="str">
         <f>"Serialnumber OR Station code + channel"</f>
@@ -11047,7 +11066,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="111" t="s">
         <v>162</v>
@@ -11056,23 +11075,23 @@
         <v>197</v>
       </c>
       <c r="E7" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="291">
         <v>128</v>
       </c>
       <c r="G7" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H7" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J7" s="227"/>
       <c r="K7" s="282" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11089,25 +11108,25 @@
         <v>197</v>
       </c>
       <c r="E8" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="291">
         <v>64</v>
       </c>
       <c r="G8" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H8" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J8" s="283" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K8" s="284" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11115,32 +11134,32 @@
         <v>74</v>
       </c>
       <c r="B9" s="189" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" s="111" t="s">
         <v>162</v>
       </c>
       <c r="D9" s="260" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E9" s="298" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F9" s="291">
         <v>4</v>
       </c>
       <c r="G9" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H9" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J9" s="227"/>
       <c r="K9" s="282" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11148,7 +11167,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="111" t="s">
         <v>162</v>
@@ -11157,23 +11176,23 @@
         <v>197</v>
       </c>
       <c r="E10" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F10" s="291">
         <v>250</v>
       </c>
       <c r="G10" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H10" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I10" s="94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J10" s="227"/>
       <c r="K10" s="282" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11190,22 +11209,22 @@
         <v>197</v>
       </c>
       <c r="E11" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F11" s="291">
         <v>8192</v>
       </c>
       <c r="G11" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H11" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J11" s="227" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K11" s="282"/>
     </row>
@@ -11213,57 +11232,57 @@
       <c r="A12" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="393" t="s">
+      <c r="B12" s="401" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="395" t="s">
+      <c r="C12" s="403" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="397" t="s">
+      <c r="D12" s="405" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="298" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F12" s="291" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" s="291" t="s">
         <v>420</v>
       </c>
-      <c r="G12" s="291" t="s">
-        <v>422</v>
-      </c>
-      <c r="H12" s="392" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="391" t="s">
-        <v>321</v>
+      <c r="H12" s="400" t="s">
+        <v>405</v>
+      </c>
+      <c r="I12" s="399" t="s">
+        <v>320</v>
       </c>
       <c r="J12" s="227" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K12" s="282" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="394"/>
-      <c r="C13" s="396"/>
-      <c r="D13" s="398"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="404"/>
+      <c r="D13" s="406"/>
       <c r="E13" s="298" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F13" s="291" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" s="291" t="s">
         <v>420</v>
       </c>
-      <c r="G13" s="291" t="s">
-        <v>422</v>
-      </c>
-      <c r="H13" s="392"/>
-      <c r="I13" s="391"/>
+      <c r="H13" s="400"/>
+      <c r="I13" s="399"/>
       <c r="J13" s="227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K13" s="282"/>
     </row>
@@ -11281,25 +11300,25 @@
         <v>197</v>
       </c>
       <c r="E14" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F14" s="291">
         <v>250</v>
       </c>
       <c r="G14" s="291" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H14" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I14" s="84" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J14" s="285" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K14" s="286" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11316,23 +11335,23 @@
         <v>197</v>
       </c>
       <c r="E15" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F15" s="291">
         <v>10</v>
       </c>
       <c r="G15" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H15" s="293" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I15" s="132" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J15" s="227"/>
       <c r="K15" s="282" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11350,10 +11369,10 @@
       <c r="F16" s="291"/>
       <c r="G16" s="291"/>
       <c r="H16" s="293" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J16" s="227"/>
       <c r="K16" s="282"/>
@@ -11363,32 +11382,32 @@
         <v>82</v>
       </c>
       <c r="B17" s="134" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="111" t="s">
         <v>162</v>
       </c>
       <c r="D17" s="260" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E17" s="298" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F17" s="291">
         <v>4</v>
       </c>
       <c r="G17" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H17" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I17" s="133" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J17" s="227"/>
       <c r="K17" s="282" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11396,7 +11415,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="134" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C18" s="111" t="s">
         <v>162</v>
@@ -11405,23 +11424,23 @@
         <v>197</v>
       </c>
       <c r="E18" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F18" s="291">
         <v>10</v>
       </c>
       <c r="G18" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H18" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I18" s="133" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J18" s="227"/>
       <c r="K18" s="282" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11438,19 +11457,19 @@
         <v>197</v>
       </c>
       <c r="E19" s="298" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F19" s="291">
         <v>4</v>
       </c>
       <c r="G19" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H19" s="293" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I19" s="133" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J19" s="227"/>
       <c r="K19" s="282"/>
@@ -11470,10 +11489,10 @@
       <c r="F20" s="291"/>
       <c r="G20" s="291"/>
       <c r="H20" s="293" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I20" s="133" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J20" s="227"/>
       <c r="K20" s="282"/>
@@ -11483,34 +11502,34 @@
         <v>82</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" s="111" t="s">
         <v>162</v>
       </c>
       <c r="D21" s="260" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E21" s="298" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F21" s="291">
         <v>4</v>
       </c>
       <c r="G21" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H21" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J21" s="227" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K21" s="282" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11518,7 +11537,7 @@
         <v>83</v>
       </c>
       <c r="B22" s="134" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C22" s="111" t="s">
         <v>162</v>
@@ -11527,25 +11546,25 @@
         <v>197</v>
       </c>
       <c r="E22" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F22" s="291">
         <v>10</v>
       </c>
       <c r="G22" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H22" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I22" s="133" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J22" s="227" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K22" s="282" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11562,29 +11581,29 @@
         <v>197</v>
       </c>
       <c r="E23" s="298" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F23" s="291">
         <v>100</v>
       </c>
       <c r="G23" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H23" s="293" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I23" s="133" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J23" s="227"/>
       <c r="K23" s="282"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="111" t="s">
         <v>162</v>
@@ -11593,31 +11612,31 @@
         <v>29</v>
       </c>
       <c r="E24" s="298" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F24" s="291" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G24" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H24" s="293" t="s">
-        <v>409</v>
-      </c>
-      <c r="I24" s="339" t="s">
-        <v>482</v>
+        <v>407</v>
+      </c>
+      <c r="I24" s="333" t="s">
+        <v>480</v>
       </c>
       <c r="J24" s="242" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K24" s="282"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" s="130" t="s">
         <v>329</v>
-      </c>
-      <c r="B25" s="130" t="s">
-        <v>330</v>
       </c>
       <c r="C25" s="111" t="s">
         <v>162</v>
@@ -11630,13 +11649,13 @@
       </c>
       <c r="F25" s="291"/>
       <c r="G25" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H25" s="293" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I25" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J25" s="227"/>
       <c r="K25" s="282"/>
@@ -11659,24 +11678,24 @@
       </c>
       <c r="F26" s="291"/>
       <c r="G26" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H26" s="293" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I26" s="93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J26" s="227" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K26" s="282" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B27" s="118" t="s">
         <v>224</v>
@@ -11685,20 +11704,20 @@
         <v>162</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E27" s="298" t="s">
         <v>116</v>
       </c>
       <c r="F27" s="291"/>
       <c r="G27" s="291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H27" s="293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I27" s="84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J27" s="227"/>
       <c r="K27" s="282" t="s">
@@ -11710,32 +11729,32 @@
         <v>69</v>
       </c>
       <c r="B28" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" s="112" t="s">
         <v>162</v>
       </c>
       <c r="D28" s="107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28" s="309" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="292"/>
       <c r="G28" s="292" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H28" s="294" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I28" s="88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J28" s="287" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K28" s="288" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -11904,7 +11923,7 @@
         <v>137</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="34"/>
@@ -11918,7 +11937,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="8"/>
@@ -11932,16 +11951,16 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="363" t="s">
-        <v>501</v>
-      </c>
-      <c r="F3" s="364"/>
-      <c r="G3" s="365"/>
+      <c r="E3" s="369" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="370"/>
+      <c r="G3" s="371"/>
       <c r="H3" s="242"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="184" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>143</v>
@@ -11952,17 +11971,17 @@
       <c r="D4" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="342" t="s">
-        <v>502</v>
-      </c>
-      <c r="F4" s="343" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="344" t="s">
-        <v>416</v>
+      <c r="E4" s="336" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" s="337" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="338" t="s">
+        <v>414</v>
       </c>
       <c r="H4" s="194" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I4" s="65" t="s">
         <v>242</v>
@@ -11977,25 +11996,25 @@
         <v>236</v>
       </c>
       <c r="C5" s="173" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" s="174" t="s">
         <v>197</v>
       </c>
       <c r="E5" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F5" s="228">
         <v>128</v>
       </c>
       <c r="G5" s="228" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H5" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -12008,23 +12027,23 @@
         <v>169</v>
       </c>
       <c r="C6" s="175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" s="176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E6" s="228" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="228"/>
       <c r="G6" s="228" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H6" s="297" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I6" s="89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -12036,25 +12055,25 @@
         <v>170</v>
       </c>
       <c r="C7" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="176" t="s">
         <v>197</v>
       </c>
       <c r="E7" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F7" s="228">
         <v>250</v>
       </c>
       <c r="G7" s="228" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H7" s="297" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -12066,25 +12085,25 @@
         <v>213</v>
       </c>
       <c r="C8" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8" s="176" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="228">
         <v>1024</v>
       </c>
       <c r="G8" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H8" s="297" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -12096,23 +12115,23 @@
         <v>241</v>
       </c>
       <c r="C9" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E9" s="228" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="228"/>
       <c r="G9" s="228" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H9" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I9" s="89" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -12124,25 +12143,25 @@
         <v>173</v>
       </c>
       <c r="C10" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="176" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="228" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F10" s="228" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G10" s="228" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H10" s="297" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12153,25 +12172,25 @@
         <v>239</v>
       </c>
       <c r="C11" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="176" t="s">
         <v>197</v>
       </c>
       <c r="E11" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F11" s="321" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G11" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H11" s="297" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12182,25 +12201,25 @@
         <v>238</v>
       </c>
       <c r="C12" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="176" t="s">
         <v>197</v>
       </c>
       <c r="E12" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F12" s="228">
         <v>3</v>
       </c>
       <c r="G12" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H12" s="297" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12211,25 +12230,25 @@
         <v>237</v>
       </c>
       <c r="C13" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D13" s="176" t="s">
         <v>197</v>
       </c>
       <c r="E13" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F13" s="321" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G13" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H13" s="297" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I13" s="99" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12240,23 +12259,23 @@
         <v>231</v>
       </c>
       <c r="C14" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D14" s="176" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E14" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F14" s="322"/>
       <c r="G14" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H14" s="297" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I14" s="99" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12267,25 +12286,25 @@
         <v>240</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D15" s="176" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F15" s="228">
         <v>64</v>
       </c>
       <c r="G15" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H15" s="297" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I15" s="89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12296,23 +12315,23 @@
         <v>172</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D16" s="176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E16" s="228" t="s">
         <v>116</v>
       </c>
       <c r="F16" s="228"/>
       <c r="G16" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H16" s="297" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I16" s="89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -12323,25 +12342,25 @@
         <v>174</v>
       </c>
       <c r="C17" s="171" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D17" s="172" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="228" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F17" s="228">
         <v>64</v>
       </c>
       <c r="G17" s="228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H17" s="297" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I17" s="89" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12352,25 +12371,25 @@
         <v>127</v>
       </c>
       <c r="C18" s="169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D18" s="170" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="245" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F18" s="320">
         <v>64</v>
       </c>
       <c r="G18" s="237" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H18" s="310" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/EPOS_DCAT-AP_Specification.xlsx
+++ b/docs/EPOS_DCAT-AP_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Entity&amp;Properties&amp;Roles" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="508">
   <si>
     <t>Unique Resource Identifier</t>
   </si>
@@ -1581,6 +1581,12 @@
   </si>
   <si>
     <t>This property refers to the subdomain of resource (e.g. Earthquake parameters, Velocity models, GNSS station velocities, InSAR, Meteorology,Variation of geomagnetic field, 3D/4D structural models, Analog models, Numerical models, Geochemical data, Borehole data, Rock sample properties)</t>
+  </si>
+  <si>
+    <t>eposap:Webservice</t>
+  </si>
+  <si>
+    <t>This property refers to the organisation responsible to publish the WebService.</t>
   </si>
 </sst>
 </file>
@@ -3267,7 +3273,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3978,6 +3984,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3988,35 +4023,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="112" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4041,6 +4050,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4053,36 +4092,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4125,8 +4134,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4464,10 +4483,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4570,10 +4589,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="355" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="357" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="195" t="s">
@@ -4582,20 +4601,20 @@
       <c r="D13" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="362" t="s">
+      <c r="E13" s="359" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="364"/>
-      <c r="B14" s="361"/>
+      <c r="A14" s="356"/>
+      <c r="B14" s="358"/>
       <c r="C14" s="195" t="s">
         <v>370</v>
       </c>
       <c r="D14" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="E14" s="363"/>
+      <c r="E14" s="360"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="205" t="s">
@@ -4648,7 +4667,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="205" t="s">
         <v>72</v>
       </c>
@@ -4665,7 +4684,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="207" t="s">
         <v>118</v>
       </c>
@@ -4683,10 +4702,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="363" t="s">
         <v>241</v>
       </c>
       <c r="C20" s="202" t="s">
@@ -4700,272 +4719,287 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="409"/>
+      <c r="B21" s="410"/>
+      <c r="C21" s="411" t="s">
+        <v>506</v>
+      </c>
+      <c r="D21" s="200" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" s="412" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="201" t="s">
+      <c r="B22" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="202" t="s">
+      <c r="C22" s="202" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="196" t="s">
+      <c r="D22" s="196" t="s">
         <v>372</v>
       </c>
-      <c r="E21" s="206" t="s">
+      <c r="E22" s="206" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="205" t="s">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="199" t="s">
+      <c r="B23" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="195" t="s">
+      <c r="C23" s="195" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="200" t="s">
+      <c r="D23" s="200" t="s">
         <v>374</v>
       </c>
-      <c r="E22" s="206" t="s">
+      <c r="E23" s="206" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="365" t="s">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="361" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="367" t="s">
+      <c r="B24" s="363" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="198" t="s">
+      <c r="C24" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="200" t="s">
+      <c r="D24" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="206" t="s">
+      <c r="E24" s="206" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="366"/>
-      <c r="B24" s="368"/>
-      <c r="C24" s="198" t="s">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="362"/>
+      <c r="B25" s="364"/>
+      <c r="C25" s="198" t="s">
         <v>374</v>
-      </c>
-      <c r="D24" s="200" t="s">
-        <v>374</v>
-      </c>
-      <c r="E24" s="206" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="358" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="360" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="198" t="s">
-        <v>161</v>
       </c>
       <c r="D25" s="200" t="s">
         <v>374</v>
       </c>
-      <c r="E25" s="362" t="s">
+      <c r="E25" s="206" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="355" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="357" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="200" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="359" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="359"/>
-      <c r="B26" s="361"/>
-      <c r="C26" s="198" t="s">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="369"/>
+      <c r="B27" s="358"/>
+      <c r="C27" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="203" t="s">
+      <c r="D27" s="203" t="s">
         <v>374</v>
       </c>
-      <c r="E26" s="363"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="208" t="s">
+      <c r="E27" s="360"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="197" t="s">
+      <c r="B28" s="197" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="198" t="s">
+      <c r="C28" s="198" t="s">
         <v>374</v>
       </c>
-      <c r="D27" s="203" t="s">
+      <c r="D28" s="203" t="s">
         <v>375</v>
       </c>
-      <c r="E27" s="206" t="s">
+      <c r="E28" s="206" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="211" t="s">
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="211" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="212" t="s">
+      <c r="B29" s="212" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="213" t="s">
+      <c r="C29" s="213" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="214" t="s">
+      <c r="D29" s="214" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="215" t="s">
+      <c r="E29" s="215" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="192" t="s">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="192" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="193" t="s">
+      <c r="B32" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="221" t="s">
+      <c r="C32" s="221" t="s">
         <v>338</v>
       </c>
-      <c r="D31" s="194" t="s">
+      <c r="D32" s="194" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="191" t="s">
+      <c r="E32" s="191" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="207" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="204" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="198" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="200" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="209" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="207" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="204" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C33" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="216" t="s">
-        <v>392</v>
-      </c>
-      <c r="E33" s="217" t="s">
-        <v>393</v>
+      <c r="D33" s="200" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="209" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="207" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34" s="204" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C34" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="200" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="210" t="s">
-        <v>379</v>
+      <c r="D34" s="216" t="s">
+        <v>392</v>
+      </c>
+      <c r="E34" s="217" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="207" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="216" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" s="217" t="s">
-        <v>394</v>
+      <c r="D35" s="200" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="210" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="207" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="204" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C36" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="200" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="210" t="s">
-        <v>386</v>
+      <c r="D36" s="216" t="s">
+        <v>392</v>
+      </c>
+      <c r="E36" s="217" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="356" t="s">
-        <v>408</v>
-      </c>
-      <c r="B37" s="354" t="s">
-        <v>398</v>
-      </c>
-      <c r="C37" s="258" t="s">
-        <v>367</v>
+      <c r="A37" s="207" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="204" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="198" t="s">
+        <v>162</v>
       </c>
       <c r="D37" s="200" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="259"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="357"/>
-      <c r="B38" s="355"/>
-      <c r="C38" s="213" t="s">
+      <c r="E37" s="210" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="367" t="s">
+        <v>408</v>
+      </c>
+      <c r="B38" s="365" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" s="258" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" s="200" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="259"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="368"/>
+      <c r="B39" s="366"/>
+      <c r="C39" s="213" t="s">
         <v>370</v>
       </c>
-      <c r="D38" s="218" t="s">
+      <c r="D39" s="218" t="s">
         <v>197</v>
       </c>
-      <c r="E38" s="219"/>
+      <c r="E39" s="219"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5354,11 +5388,11 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="369" t="s">
+      <c r="E4" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="372"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
@@ -6045,7 +6079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.100000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
         <v>25</v>
       </c>
@@ -6068,7 +6102,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="40"/>
@@ -6502,8 +6536,8 @@
   </sheetPr>
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6522,22 +6556,22 @@
       <c r="A1" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="375" t="s">
+      <c r="B1" s="376" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="375"/>
-      <c r="D1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="377"/>
       <c r="H1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="377" t="s">
+      <c r="B2" s="378" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="377"/>
-      <c r="D2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="379"/>
       <c r="H2"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6548,11 +6582,11 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="369" t="s">
+      <c r="E4" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="372"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
@@ -7225,8 +7259,8 @@
       <c r="D29" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="407"/>
-      <c r="F29" s="407"/>
+      <c r="E29" s="354"/>
+      <c r="F29" s="354"/>
       <c r="G29" s="248" t="s">
         <v>416</v>
       </c>
@@ -7250,8 +7284,8 @@
       <c r="D30" s="344" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="407"/>
-      <c r="F30" s="407"/>
+      <c r="E30" s="354"/>
+      <c r="F30" s="354"/>
       <c r="G30" s="248"/>
       <c r="H30" s="228" t="s">
         <v>404</v>
@@ -7273,8 +7307,8 @@
       <c r="D31" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="407"/>
-      <c r="F31" s="407"/>
+      <c r="E31" s="354"/>
+      <c r="F31" s="354"/>
       <c r="G31" s="248" t="s">
         <v>416</v>
       </c>
@@ -7298,8 +7332,8 @@
       <c r="D32" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="407"/>
-      <c r="F32" s="407"/>
+      <c r="E32" s="354"/>
+      <c r="F32" s="354"/>
       <c r="G32" s="248"/>
       <c r="H32" s="228" t="s">
         <v>405</v>
@@ -7321,8 +7355,8 @@
       <c r="D33" s="345" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="407"/>
-      <c r="F33" s="407"/>
+      <c r="E33" s="354"/>
+      <c r="F33" s="354"/>
       <c r="G33" s="248"/>
       <c r="H33" s="228" t="s">
         <v>405</v>
@@ -7444,9 +7478,9 @@
       <c r="B41" s="267"/>
       <c r="C41" s="267"/>
       <c r="D41" s="267"/>
-      <c r="E41" s="372"/>
-      <c r="F41" s="372"/>
-      <c r="G41" s="374"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="373"/>
+      <c r="G41" s="375"/>
       <c r="H41" s="241"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7454,9 +7488,9 @@
       <c r="B42" s="267"/>
       <c r="C42" s="267"/>
       <c r="D42" s="267"/>
-      <c r="E42" s="373"/>
-      <c r="F42" s="373"/>
-      <c r="G42" s="373"/>
+      <c r="E42" s="374"/>
+      <c r="F42" s="374"/>
+      <c r="G42" s="374"/>
       <c r="H42" s="240"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9299,22 +9333,22 @@
       <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="385" t="s">
+      <c r="B1" s="382" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="385"/>
-      <c r="D1" s="386"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="383"/>
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="387" t="s">
+      <c r="B2" s="384" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="388"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="385"/>
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9325,11 +9359,11 @@
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="369" t="s">
+      <c r="E4" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="372"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
@@ -9393,13 +9427,13 @@
       <c r="A7" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="383" t="s">
+      <c r="B7" s="380" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="389" t="s">
+      <c r="C7" s="386" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="391" t="s">
+      <c r="D7" s="388" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="246" t="s">
@@ -9411,10 +9445,10 @@
       <c r="G7" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="380" t="s">
+      <c r="H7" s="391" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="379" t="s">
+      <c r="I7" s="390" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9422,9 +9456,9 @@
       <c r="A8" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="384"/>
-      <c r="C8" s="390"/>
-      <c r="D8" s="392"/>
+      <c r="B8" s="381"/>
+      <c r="C8" s="387"/>
+      <c r="D8" s="389"/>
       <c r="E8" s="246" t="s">
         <v>415</v>
       </c>
@@ -9434,8 +9468,8 @@
       <c r="G8" s="246" t="s">
         <v>416</v>
       </c>
-      <c r="H8" s="380"/>
-      <c r="I8" s="379"/>
+      <c r="H8" s="391"/>
+      <c r="I8" s="390"/>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="277" t="s">
@@ -9564,13 +9598,13 @@
       <c r="D13" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="381" t="s">
+      <c r="E13" s="392" t="s">
         <v>415</v>
       </c>
-      <c r="F13" s="381">
+      <c r="F13" s="392">
         <v>128</v>
       </c>
-      <c r="G13" s="381" t="s">
+      <c r="G13" s="392" t="s">
         <v>420</v>
       </c>
       <c r="H13" s="228" t="s">
@@ -9593,9 +9627,9 @@
       <c r="D14" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="381"/>
-      <c r="F14" s="381"/>
-      <c r="G14" s="381"/>
+      <c r="E14" s="392"/>
+      <c r="F14" s="392"/>
+      <c r="G14" s="392"/>
       <c r="H14" s="228" t="s">
         <v>405</v>
       </c>
@@ -9616,9 +9650,9 @@
       <c r="D15" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="382"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="382"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="393"/>
+      <c r="G15" s="393"/>
       <c r="H15" s="237" t="s">
         <v>405</v>
       </c>
@@ -9635,17 +9669,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9658,7 +9692,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9678,21 +9712,21 @@
       <c r="A1" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="393" t="s">
+      <c r="B1" s="394" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="393"/>
-      <c r="D1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="395"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="395" t="s">
+      <c r="B2" s="396" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="396"/>
-      <c r="D2" s="397"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="398"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="339"/>
@@ -9701,11 +9735,11 @@
       <c r="D3" s="341"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="369" t="s">
+      <c r="E4" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="372"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
@@ -10294,11 +10328,11 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8"/>
-      <c r="E3" s="369" t="s">
+      <c r="E3" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="370"/>
-      <c r="G3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="372"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
@@ -10582,11 +10616,11 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="369" t="s">
+      <c r="E3" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="370"/>
-      <c r="G3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="372"/>
       <c r="H3" s="242"/>
       <c r="I3" s="8"/>
     </row>
@@ -10945,11 +10979,11 @@
       <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="398" t="s">
+      <c r="B1" s="399" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
       <c r="E1" s="308" t="s">
         <v>429</v>
       </c>
@@ -10959,11 +10993,11 @@
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="387" t="s">
+      <c r="B2" s="384" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
       <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="H2"/>
@@ -10982,11 +11016,11 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="369" t="s">
+      <c r="E4" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="370"/>
-      <c r="G4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="372"/>
       <c r="H4" s="242"/>
       <c r="I4" s="8"/>
     </row>
@@ -11232,13 +11266,13 @@
       <c r="A12" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="401" t="s">
+      <c r="B12" s="402" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="403" t="s">
+      <c r="C12" s="404" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="405" t="s">
+      <c r="D12" s="406" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="298" t="s">
@@ -11250,10 +11284,10 @@
       <c r="G12" s="291" t="s">
         <v>420</v>
       </c>
-      <c r="H12" s="400" t="s">
+      <c r="H12" s="401" t="s">
         <v>405</v>
       </c>
-      <c r="I12" s="399" t="s">
+      <c r="I12" s="400" t="s">
         <v>320</v>
       </c>
       <c r="J12" s="227" t="s">
@@ -11267,9 +11301,9 @@
       <c r="A13" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="402"/>
-      <c r="C13" s="404"/>
-      <c r="D13" s="406"/>
+      <c r="B13" s="403"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="407"/>
       <c r="E13" s="298" t="s">
         <v>427</v>
       </c>
@@ -11279,8 +11313,8 @@
       <c r="G13" s="291" t="s">
         <v>420</v>
       </c>
-      <c r="H13" s="400"/>
-      <c r="I13" s="399"/>
+      <c r="H13" s="401"/>
+      <c r="I13" s="400"/>
       <c r="J13" s="227" t="s">
         <v>441</v>
       </c>
@@ -11951,11 +11985,11 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="369" t="s">
+      <c r="E3" s="370" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="370"/>
-      <c r="G3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="372"/>
       <c r="H3" s="242"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
